--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H2">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.1352682035468</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N2">
-        <v>2.1352682035468</v>
+        <v>0.924589</v>
       </c>
       <c r="O2">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P2">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q2">
-        <v>16.86702191249604</v>
+        <v>2.443274202931667</v>
       </c>
       <c r="R2">
-        <v>16.86702191249604</v>
+        <v>21.989467826385</v>
       </c>
       <c r="S2">
-        <v>0.09370672095881295</v>
+        <v>0.01105827571714908</v>
       </c>
       <c r="T2">
-        <v>0.09370672095881295</v>
+        <v>0.01105827571714908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H3">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617673962874414</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N3">
-        <v>0.617673962874414</v>
+        <v>6.621118</v>
       </c>
       <c r="O3">
-        <v>0.2243686665155707</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P3">
-        <v>0.2243686665155707</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q3">
-        <v>4.879162369053028</v>
+        <v>17.49664640609667</v>
       </c>
       <c r="R3">
-        <v>4.879162369053028</v>
+        <v>157.46981765487</v>
       </c>
       <c r="S3">
-        <v>0.02710675950986141</v>
+        <v>0.07918994104383534</v>
       </c>
       <c r="T3">
-        <v>0.02710675950986141</v>
+        <v>0.07918994104383534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.865808422085</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H4">
-        <v>12.865808422085</v>
+        <v>23.782965</v>
       </c>
       <c r="I4">
-        <v>0.1967734499725871</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J4">
-        <v>0.1967734499725871</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.1352682035468</v>
+        <v>0.83074</v>
       </c>
       <c r="N4">
-        <v>2.1352682035468</v>
+        <v>2.49222</v>
       </c>
       <c r="O4">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P4">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q4">
-        <v>27.47195163660272</v>
+        <v>6.585820114700001</v>
       </c>
       <c r="R4">
-        <v>27.47195163660272</v>
+        <v>59.2723810323</v>
       </c>
       <c r="S4">
-        <v>0.1526236533965694</v>
+        <v>0.02980746678555907</v>
       </c>
       <c r="T4">
-        <v>0.1526236533965694</v>
+        <v>0.02980746678555907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H5">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I5">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J5">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.617673962874414</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N5">
-        <v>0.617673962874414</v>
+        <v>0.924589</v>
       </c>
       <c r="O5">
-        <v>0.2243686665155707</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P5">
-        <v>0.2243686665155707</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q5">
-        <v>7.946874873652253</v>
+        <v>4.000552367116001</v>
       </c>
       <c r="R5">
-        <v>7.946874873652253</v>
+        <v>36.00497130404401</v>
       </c>
       <c r="S5">
-        <v>0.04414979657601772</v>
+        <v>0.0181065273162463</v>
       </c>
       <c r="T5">
-        <v>0.04414979657601772</v>
+        <v>0.0181065273162463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.9116503761296</v>
+        <v>12.980532</v>
       </c>
       <c r="H6">
-        <v>21.9116503761296</v>
+        <v>38.941596</v>
       </c>
       <c r="I6">
-        <v>0.3351232116672094</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J6">
-        <v>0.3351232116672094</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1352682035468</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N6">
-        <v>2.1352682035468</v>
+        <v>6.621118</v>
       </c>
       <c r="O6">
-        <v>0.7756313334844294</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P6">
-        <v>0.7756313334844294</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q6">
-        <v>46.78725033538381</v>
+        <v>28.648544691592</v>
       </c>
       <c r="R6">
-        <v>46.78725033538381</v>
+        <v>257.836902224328</v>
       </c>
       <c r="S6">
-        <v>0.2599320635470223</v>
+        <v>0.1296635087926528</v>
       </c>
       <c r="T6">
-        <v>0.2599320635470223</v>
+        <v>0.1296635087926528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.9116503761296</v>
+        <v>12.980532</v>
       </c>
       <c r="H7">
-        <v>21.9116503761296</v>
+        <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.3351232116672094</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J7">
-        <v>0.3351232116672094</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.617673962874414</v>
+        <v>0.83074</v>
       </c>
       <c r="N7">
-        <v>0.617673962874414</v>
+        <v>2.49222</v>
       </c>
       <c r="O7">
-        <v>0.2243686665155707</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P7">
-        <v>0.2243686665155707</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q7">
-        <v>13.53425592094261</v>
+        <v>10.78344715368</v>
       </c>
       <c r="R7">
-        <v>13.53425592094261</v>
+        <v>97.05102438312001</v>
       </c>
       <c r="S7">
-        <v>0.07519114812018711</v>
+        <v>0.04880595541164275</v>
       </c>
       <c r="T7">
-        <v>0.07519114812018711</v>
+        <v>0.04880595541164275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.1431562674219</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H8">
-        <v>19.1431562674219</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I8">
-        <v>0.2927810502477941</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J8">
-        <v>0.2927810502477941</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.1352682035468</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N8">
-        <v>2.1352682035468</v>
+        <v>0.924589</v>
       </c>
       <c r="O8">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P8">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q8">
-        <v>40.87577289335363</v>
+        <v>6.76537848875389</v>
       </c>
       <c r="R8">
-        <v>40.87577289335363</v>
+        <v>60.88840639878501</v>
       </c>
       <c r="S8">
-        <v>0.2270901564226682</v>
+        <v>0.03062014921196393</v>
       </c>
       <c r="T8">
-        <v>0.2270901564226682</v>
+        <v>0.03062014921196393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.1431562674219</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H9">
-        <v>19.1431562674219</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I9">
-        <v>0.2927810502477941</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J9">
-        <v>0.2927810502477941</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.617673962874414</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N9">
-        <v>0.617673962874414</v>
+        <v>6.621118</v>
       </c>
       <c r="O9">
-        <v>0.2243686665155707</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P9">
-        <v>0.2243686665155707</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q9">
-        <v>11.82422919362266</v>
+        <v>48.44787174485223</v>
       </c>
       <c r="R9">
-        <v>11.82422919362266</v>
+        <v>436.0308457036701</v>
       </c>
       <c r="S9">
-        <v>0.06569089382512584</v>
+        <v>0.2192753981607181</v>
       </c>
       <c r="T9">
-        <v>0.06569089382512584</v>
+        <v>0.2192753981607181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.56399644646306</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H10">
-        <v>3.56399644646306</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I10">
-        <v>0.054508807643735</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J10">
-        <v>0.054508807643735</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.1352682035468</v>
+        <v>0.83074</v>
       </c>
       <c r="N10">
-        <v>2.1352682035468</v>
+        <v>2.49222</v>
       </c>
       <c r="O10">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P10">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q10">
-        <v>7.610088289686356</v>
+        <v>18.23600710936667</v>
       </c>
       <c r="R10">
-        <v>7.610088289686356</v>
+        <v>164.1240639843</v>
       </c>
       <c r="S10">
-        <v>0.04227873915935643</v>
+        <v>0.0825362926327706</v>
       </c>
       <c r="T10">
-        <v>0.04227873915935643</v>
+        <v>0.08253629263277061</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>19.402266</v>
+      </c>
+      <c r="H11">
+        <v>58.20679800000001</v>
+      </c>
+      <c r="I11">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="J11">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.924589</v>
+      </c>
+      <c r="O11">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P11">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q11">
+        <v>5.979707239558</v>
+      </c>
+      <c r="R11">
+        <v>53.81736515602201</v>
+      </c>
+      <c r="S11">
+        <v>0.02706419577611125</v>
+      </c>
+      <c r="T11">
+        <v>0.02706419577611125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>19.402266</v>
+      </c>
+      <c r="H12">
+        <v>58.20679800000001</v>
+      </c>
+      <c r="I12">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="J12">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.621118</v>
+      </c>
+      <c r="O12">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P12">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q12">
+        <v>42.821564217796</v>
+      </c>
+      <c r="R12">
+        <v>385.3940779601641</v>
+      </c>
+      <c r="S12">
+        <v>0.1938106918952466</v>
+      </c>
+      <c r="T12">
+        <v>0.1938106918952466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.56399644646306</v>
-      </c>
-      <c r="H11">
-        <v>3.56399644646306</v>
-      </c>
-      <c r="I11">
-        <v>0.054508807643735</v>
-      </c>
-      <c r="J11">
-        <v>0.054508807643735</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.617673962874414</v>
-      </c>
-      <c r="N11">
-        <v>0.617673962874414</v>
-      </c>
-      <c r="O11">
-        <v>0.2243686665155707</v>
-      </c>
-      <c r="P11">
-        <v>0.2243686665155707</v>
-      </c>
-      <c r="Q11">
-        <v>2.201387808757167</v>
-      </c>
-      <c r="R11">
-        <v>2.201387808757167</v>
-      </c>
-      <c r="S11">
-        <v>0.01223006848437857</v>
-      </c>
-      <c r="T11">
-        <v>0.01223006848437857</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19.402266</v>
+      </c>
+      <c r="H13">
+        <v>58.20679800000001</v>
+      </c>
+      <c r="I13">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="J13">
+        <v>0.293826144929599</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.83074</v>
+      </c>
+      <c r="N13">
+        <v>2.49222</v>
+      </c>
+      <c r="O13">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P13">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q13">
+        <v>16.11823845684</v>
+      </c>
+      <c r="R13">
+        <v>145.06414611156</v>
+      </c>
+      <c r="S13">
+        <v>0.07295125725824118</v>
+      </c>
+      <c r="T13">
+        <v>0.0729512572582412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.771175666666667</v>
+      </c>
+      <c r="H14">
+        <v>11.313527</v>
+      </c>
+      <c r="I14">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="J14">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.924589</v>
+      </c>
+      <c r="O14">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P14">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q14">
+        <v>1.162262512822556</v>
+      </c>
+      <c r="R14">
+        <v>10.460362615403</v>
+      </c>
+      <c r="S14">
+        <v>0.005260408065159683</v>
+      </c>
+      <c r="T14">
+        <v>0.005260408065159683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.771175666666667</v>
+      </c>
+      <c r="H15">
+        <v>11.313527</v>
+      </c>
+      <c r="I15">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="J15">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.621118</v>
+      </c>
+      <c r="O15">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P15">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q15">
+        <v>8.323133029242889</v>
+      </c>
+      <c r="R15">
+        <v>74.90819726318601</v>
+      </c>
+      <c r="S15">
+        <v>0.0376705568934672</v>
+      </c>
+      <c r="T15">
+        <v>0.03767055689346721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.771175666666667</v>
+      </c>
+      <c r="H16">
+        <v>11.313527</v>
+      </c>
+      <c r="I16">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="J16">
+        <v>0.05711033999786299</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.83074</v>
+      </c>
+      <c r="N16">
+        <v>2.49222</v>
+      </c>
+      <c r="O16">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P16">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q16">
+        <v>3.132866473326667</v>
+      </c>
+      <c r="R16">
+        <v>28.19579825994</v>
+      </c>
+      <c r="S16">
+        <v>0.0141793750392361</v>
+      </c>
+      <c r="T16">
+        <v>0.0141793750392361</v>
       </c>
     </row>
   </sheetData>
